--- a/Exercicios/1.2-exercicio-locadora/01_modelagem_fisico.xlsx
+++ b/Exercicios/1.2-exercicio-locadora/01_modelagem_fisico.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105DF5E1-4FD7-4660-A866-33624EFEF643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{105DF5E1-4FD7-4660-A866-33624EFEF643}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5CEDA2B-92E7-4442-9C47-5676FD715347}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veiculos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Nome</t>
   </si>
@@ -103,9 +103,6 @@
     <t>IdCliente</t>
   </si>
   <si>
-    <t>DataInicio</t>
-  </si>
-  <si>
     <t>DataFim</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Localiza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    DataInicio</t>
   </si>
 </sst>
 </file>
@@ -297,6 +297,12 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -306,14 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,46 +595,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="D1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="I1" s="20" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -648,28 +652,31 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -682,34 +689,37 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
       <c r="K3" s="10">
         <v>1</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
         <v>43484</v>
       </c>
-      <c r="M3" s="11">
+      <c r="O3" s="11">
         <v>43485</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -717,103 +727,112 @@
       <c r="E4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>2</v>
-      </c>
-      <c r="J4" s="10">
-        <v>1</v>
-      </c>
       <c r="K4" s="10">
         <v>2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
         <v>43485</v>
       </c>
-      <c r="M4" s="11">
+      <c r="O4" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="I5" s="10">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10">
-        <v>2</v>
       </c>
       <c r="K5" s="10">
         <v>3</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10">
+        <v>3</v>
+      </c>
+      <c r="N5" s="11">
         <v>43486</v>
       </c>
-      <c r="M5" s="11">
+      <c r="O5" s="11">
         <v>43486</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="I6" s="10">
+      <c r="K6" s="10">
         <v>4</v>
       </c>
-      <c r="J6" s="10">
-        <v>2</v>
-      </c>
-      <c r="K6" s="10">
-        <v>2</v>
-      </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
+        <v>2</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2</v>
+      </c>
+      <c r="N6" s="11">
         <v>43487</v>
       </c>
-      <c r="M6" s="11">
+      <c r="O6" s="11">
         <v>43487</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="D8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="H8" s="17" t="s">
+      <c r="B8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -827,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>9</v>
@@ -839,7 +858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -865,7 +884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -891,7 +910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -910,12 +929,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="D1:G1"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
